--- a/various_correlations_output.xlsx
+++ b/various_correlations_output.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnrandolph/Desktop/Github/voting-power/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A021F37-0808-524B-AB21-C85D306E66E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7951BD8-FB8B-FA4E-ADE5-F1D4D3EE1623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{1A8CDEDC-9550-8544-A06A-66A54DD639E8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17800" windowHeight="22400" xr2:uid="{1A8CDEDC-9550-8544-A06A-66A54DD639E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="67">
   <si>
     <t>state</t>
   </si>
@@ -210,22 +233,31 @@
     <t>"compare" metric from 2016 Economist model</t>
   </si>
   <si>
-    <t>With John's correlation matrix (from historical patterns)</t>
-  </si>
-  <si>
     <t>With The Economist's correlation matrix</t>
   </si>
   <si>
     <t>Combined</t>
   </si>
   <si>
-    <t>hist correlation</t>
-  </si>
-  <si>
     <t>economist correlation</t>
   </si>
   <si>
     <t>outcome</t>
+  </si>
+  <si>
+    <t>With John's correlation matrix since 1992 (from historical patterns)</t>
+  </si>
+  <si>
+    <t>With John's correlation matrix since 1968 (from historical patterns)</t>
+  </si>
+  <si>
+    <t>1968 corr</t>
+  </si>
+  <si>
+    <t>1992 corr</t>
+  </si>
+  <si>
+    <t>Total error</t>
   </si>
 </sst>
 </file>
@@ -282,17 +314,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,41 +640,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C4DDF8-C308-E94C-8C3B-BAAF738F897C}">
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:AE55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="V8" workbookViewId="0">
+      <selection activeCell="AC56" sqref="AC56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="J1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="R1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="AB1" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="T1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -665,38 +707,60 @@
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>62</v>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -722,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
@@ -739,24 +803,48 @@
       <c r="P3" s="2">
         <v>5.576208E-3</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="2">
-        <v>1</v>
-      </c>
       <c r="T3" s="2">
         <v>1</v>
       </c>
       <c r="U3" s="2">
         <v>1</v>
       </c>
-      <c r="V3">
-        <f>T3-S3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>3</v>
+      </c>
+      <c r="X3" s="2">
+        <v>5.576208E-3</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <f>AB3-AA3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -782,41 +870,65 @@
         <v>2</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>13</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2.4163568999999999E-2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>2</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
         <v>4</v>
       </c>
-      <c r="P4" s="2">
+      <c r="X4" s="2">
         <v>7.4349439999999998E-3</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="2">
-        <v>1</v>
-      </c>
-      <c r="T4" s="2">
-        <v>1</v>
-      </c>
-      <c r="U4" s="2">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <f t="shared" ref="V4:V53" si="0">T4-S4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <f>AB4-AA4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -842,41 +954,65 @@
         <v>3</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>4</v>
+      </c>
+      <c r="P5" s="2">
+        <v>7.4349439999999998E-3</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="T5" s="2">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
         <v>3</v>
       </c>
-      <c r="P5" s="2">
+      <c r="X5" s="2">
         <v>5.576208E-3</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="2">
-        <v>1</v>
-      </c>
-      <c r="T5" s="6">
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="5">
         <v>0.89766666669999995</v>
       </c>
-      <c r="U5" s="2">
-        <v>1</v>
-      </c>
-      <c r="V5" s="7">
-        <f t="shared" si="0"/>
+      <c r="AC5" s="2">
+        <v>0.9193333333</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="6">
+        <f t="shared" ref="AE4:AE53" si="0">AB5-AA5</f>
         <v>-0.10233333330000005</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -919,24 +1055,48 @@
       <c r="P6" s="2">
         <v>1.8587361E-2</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="1">
+        <v>4</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="2">
-        <v>1</v>
-      </c>
       <c r="T6" s="2">
         <v>1</v>
       </c>
       <c r="U6" s="2">
         <v>1</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>10</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1.8587361E-2</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -962,41 +1122,65 @@
         <v>5</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>4</v>
+      </c>
+      <c r="P7" s="2">
+        <v>7.4349439999999998E-3</v>
+      </c>
+      <c r="R7" s="1">
+        <v>5</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="T7" s="2">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
         <v>11</v>
       </c>
-      <c r="P7" s="2">
+      <c r="X7" s="2">
         <v>2.0446097E-2</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="2">
-        <v>1</v>
-      </c>
-      <c r="T7" s="6">
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="5">
         <v>0.99233333329999995</v>
       </c>
-      <c r="U7" s="2">
-        <v>1</v>
-      </c>
-      <c r="V7" s="7">
+      <c r="AC7" s="2">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="6">
         <f t="shared" si="0"/>
         <v>-7.6666667000000466E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -1039,24 +1223,48 @@
       <c r="P8" s="2">
         <v>0.102230483</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="1">
+        <v>6</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S8" s="2">
-        <v>1</v>
-      </c>
       <c r="T8" s="2">
         <v>1</v>
       </c>
       <c r="U8" s="2">
         <v>1</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>55</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0.102230483</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -1082,41 +1290,65 @@
         <v>7</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>3</v>
+      </c>
+      <c r="P9" s="2">
+        <v>5.576208E-3</v>
+      </c>
+      <c r="R9" s="1">
+        <v>7</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
         <v>29</v>
       </c>
-      <c r="P9" s="2">
+      <c r="X9" s="2">
         <v>5.3903345999999998E-2</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="Z9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="2">
-        <v>1</v>
-      </c>
-      <c r="T9" s="6">
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="5">
         <v>0.96499999999999997</v>
       </c>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
-      <c r="V9">
+      <c r="AC9" s="2">
+        <v>0.96766666670000001</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE9">
         <f t="shared" si="0"/>
         <v>-3.5000000000000031E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -1159,24 +1391,48 @@
       <c r="P10" s="2">
         <v>7.4349439999999998E-3</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="1">
+        <v>8</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="2">
-        <v>1</v>
-      </c>
       <c r="T10" s="2">
         <v>1</v>
       </c>
       <c r="U10" s="2">
         <v>1</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>4</v>
+      </c>
+      <c r="X10" s="2">
+        <v>7.4349439999999998E-3</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1202,41 +1458,65 @@
         <v>9</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>11</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2.0446097E-2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>9</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
+      <c r="T11" s="2">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
         <v>20</v>
       </c>
-      <c r="P11" s="2">
+      <c r="X11" s="2">
         <v>3.7174721000000001E-2</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="Z11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S11" s="2">
-        <v>1</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2">
-        <v>1</v>
-      </c>
-      <c r="V11">
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE11">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1262,41 +1542,65 @@
         <v>10</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.999</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O12" s="2">
+        <v>5</v>
+      </c>
+      <c r="P12" s="2">
+        <v>9.2936800000000003E-3</v>
+      </c>
+      <c r="R12" s="1">
+        <v>10</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
+      <c r="T12" s="2">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
         <v>14</v>
       </c>
-      <c r="P12" s="2">
+      <c r="X12" s="2">
         <v>2.6022304999999999E-2</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="Z12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="2">
-        <v>1</v>
-      </c>
-      <c r="T12" s="6">
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="5">
         <v>0.8246666667</v>
       </c>
-      <c r="U12" s="2">
-        <v>1</v>
-      </c>
-      <c r="V12" s="7">
+      <c r="AC12" s="2">
+        <v>0.84666666670000001</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="6">
         <f t="shared" si="0"/>
         <v>-0.1753333333</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -1322,16 +1626,16 @@
         <v>11</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L13" s="2">
-        <v>0.99933333329999996</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>1</v>
       </c>
       <c r="N13" s="3">
-        <v>4.444444E-7</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>3</v>
@@ -1339,24 +1643,48 @@
       <c r="P13" s="2">
         <v>5.576208E-3</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="1">
+        <v>11</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S13" s="6">
+      <c r="T13" s="2">
         <v>0.99933333329999996</v>
       </c>
-      <c r="T13" s="2">
-        <v>1</v>
-      </c>
       <c r="U13" s="2">
         <v>1</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13" s="3">
+        <v>4.444444E-7</v>
+      </c>
+      <c r="W13" s="2">
+        <v>3</v>
+      </c>
+      <c r="X13" s="2">
+        <v>5.576208E-3</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>0.99933333329999996</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="6">
         <f t="shared" si="0"/>
         <v>6.6666670000004036E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -1385,13 +1713,13 @@
         <v>22</v>
       </c>
       <c r="L14" s="2">
-        <v>0.99966666670000004</v>
+        <v>0.99866666670000004</v>
       </c>
       <c r="M14" s="2">
         <v>1</v>
       </c>
       <c r="N14" s="3">
-        <v>1.111111E-7</v>
+        <v>1.777778E-6</v>
       </c>
       <c r="O14" s="2">
         <v>12</v>
@@ -1399,24 +1727,48 @@
       <c r="P14" s="2">
         <v>2.2304833E-2</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="R14" s="1">
+        <v>12</v>
+      </c>
+      <c r="S14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S14" s="6">
+      <c r="T14" s="2">
         <v>0.99966666670000004</v>
       </c>
-      <c r="T14" s="2">
-        <v>1</v>
-      </c>
       <c r="U14" s="2">
         <v>1</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="3">
+        <v>1.111111E-7</v>
+      </c>
+      <c r="W14" s="2">
+        <v>12</v>
+      </c>
+      <c r="X14" s="2">
+        <v>2.2304833E-2</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0.99966666670000004</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>0.99866666670000004</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="6">
         <f t="shared" si="0"/>
         <v>3.3333329999996053E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1445,13 +1797,13 @@
         <v>23</v>
       </c>
       <c r="L15" s="2">
-        <v>0.99833333329999996</v>
+        <v>0.99933333329999996</v>
       </c>
       <c r="M15" s="2">
         <v>1</v>
       </c>
       <c r="N15" s="3">
-        <v>2.7777780000000001E-6</v>
+        <v>4.444444E-7</v>
       </c>
       <c r="O15" s="2">
         <v>7</v>
@@ -1459,24 +1811,48 @@
       <c r="P15" s="2">
         <v>1.3011152E-2</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="R15" s="1">
+        <v>13</v>
+      </c>
+      <c r="S15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S15" s="6">
+      <c r="T15" s="2">
         <v>0.99833333329999996</v>
       </c>
-      <c r="T15" s="6">
+      <c r="U15" s="2">
+        <v>1</v>
+      </c>
+      <c r="V15" s="3">
+        <v>2.7777780000000001E-6</v>
+      </c>
+      <c r="W15" s="2">
+        <v>7</v>
+      </c>
+      <c r="X15" s="2">
+        <v>1.3011152E-2</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>0.99833333329999996</v>
+      </c>
+      <c r="AB15" s="5">
         <v>0.999</v>
       </c>
-      <c r="U15" s="2">
-        <v>1</v>
-      </c>
-      <c r="V15" s="7">
+      <c r="AC15" s="2">
+        <v>0.99933333329999996</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="6">
         <f t="shared" si="0"/>
         <v>6.6666670000004036E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1505,13 +1881,13 @@
         <v>24</v>
       </c>
       <c r="L16" s="2">
-        <v>0.98966666670000003</v>
+        <v>0.997</v>
       </c>
       <c r="M16" s="2">
         <v>1</v>
       </c>
       <c r="N16" s="3">
-        <v>1.067778E-4</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="O16" s="2">
         <v>7</v>
@@ -1519,24 +1895,48 @@
       <c r="P16" s="2">
         <v>1.3011152E-2</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="1">
+        <v>14</v>
+      </c>
+      <c r="S16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S16" s="6">
+      <c r="T16" s="2">
         <v>0.98966666670000003</v>
       </c>
-      <c r="T16" s="6">
+      <c r="U16" s="2">
+        <v>1</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1.067778E-4</v>
+      </c>
+      <c r="W16" s="2">
+        <v>7</v>
+      </c>
+      <c r="X16" s="2">
+        <v>1.3011152E-2</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>0.98966666670000003</v>
+      </c>
+      <c r="AB16" s="5">
         <v>0.998</v>
       </c>
-      <c r="U16" s="2">
-        <v>1</v>
-      </c>
-      <c r="V16" s="7">
+      <c r="AC16" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="6">
         <f t="shared" si="0"/>
         <v>8.3333332999999676E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -1562,41 +1962,65 @@
         <v>15</v>
       </c>
       <c r="K17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3">
+        <v>4.8999999999999998E-5</v>
+      </c>
+      <c r="O17" s="2">
+        <v>11</v>
+      </c>
+      <c r="P17" s="2">
+        <v>2.0446097E-2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>15</v>
+      </c>
+      <c r="S17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="2">
+      <c r="T17" s="2">
         <v>0.97799999999999998</v>
       </c>
-      <c r="M17" s="2">
-        <v>1</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="U17" s="2">
+        <v>1</v>
+      </c>
+      <c r="V17" s="3">
         <v>4.84E-4</v>
       </c>
-      <c r="O17" s="2">
+      <c r="W17" s="2">
         <v>4</v>
       </c>
-      <c r="P17" s="2">
+      <c r="X17" s="2">
         <v>7.4349439999999998E-3</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="Z17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S17" s="6">
+      <c r="AA17" s="5">
         <v>0.97799999999999998</v>
       </c>
-      <c r="T17" s="2">
-        <v>1</v>
-      </c>
-      <c r="U17" s="2">
-        <v>1</v>
-      </c>
-      <c r="V17" s="7">
+      <c r="AB17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="6">
         <f t="shared" si="0"/>
         <v>2.200000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -1622,41 +2046,65 @@
         <v>16</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.96766666670000001</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1.045444E-3</v>
+      </c>
+      <c r="O18" s="2">
+        <v>29</v>
+      </c>
+      <c r="P18" s="2">
+        <v>5.3903345999999998E-2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>16</v>
+      </c>
+      <c r="S18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="2">
+      <c r="T18" s="2">
         <v>0.94133333330000002</v>
       </c>
-      <c r="M18" s="2">
-        <v>1</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="U18" s="2">
+        <v>1</v>
+      </c>
+      <c r="V18" s="3">
         <v>3.4417779999999999E-3</v>
       </c>
-      <c r="O18" s="2">
+      <c r="W18" s="2">
         <v>5</v>
       </c>
-      <c r="P18" s="2">
+      <c r="X18" s="2">
         <v>9.2936800000000003E-3</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="Z18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S18" s="6">
+      <c r="AA18" s="5">
         <v>0.94133333330000002</v>
       </c>
-      <c r="T18" s="2">
-        <v>1</v>
-      </c>
-      <c r="U18" s="2">
-        <v>1</v>
-      </c>
-      <c r="V18" s="7">
+      <c r="AB18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>0.999</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="6">
         <f t="shared" si="0"/>
         <v>5.8666666699999981E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -1685,13 +2133,13 @@
         <v>25</v>
       </c>
       <c r="L19" s="2">
-        <v>0.90966666669999996</v>
+        <v>0.93566666669999998</v>
       </c>
       <c r="M19" s="2">
         <v>1</v>
       </c>
       <c r="N19" s="3">
-        <v>8.1601109999999994E-3</v>
+        <v>4.1387780000000001E-3</v>
       </c>
       <c r="O19" s="2">
         <v>10</v>
@@ -1699,24 +2147,48 @@
       <c r="P19" s="2">
         <v>1.8587361E-2</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="R19" s="1">
+        <v>17</v>
+      </c>
+      <c r="S19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S19" s="6">
+      <c r="T19" s="2">
         <v>0.90966666669999996</v>
       </c>
-      <c r="T19" s="6">
+      <c r="U19" s="2">
+        <v>1</v>
+      </c>
+      <c r="V19" s="3">
+        <v>8.1601109999999994E-3</v>
+      </c>
+      <c r="W19" s="2">
+        <v>10</v>
+      </c>
+      <c r="X19" s="2">
+        <v>1.8587361E-2</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>0.90966666669999996</v>
+      </c>
+      <c r="AB19" s="5">
         <v>0.9516666667</v>
       </c>
-      <c r="U19" s="2">
-        <v>1</v>
-      </c>
-      <c r="V19" s="7">
+      <c r="AC19" s="2">
+        <v>0.93566666669999998</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="6">
         <f t="shared" si="0"/>
         <v>4.2000000000000037E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -1742,41 +2214,65 @@
         <v>18</v>
       </c>
       <c r="K20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.866761</v>
+      </c>
+      <c r="O20" s="2">
+        <v>5</v>
+      </c>
+      <c r="P20" s="2">
+        <v>9.2936800000000003E-3</v>
+      </c>
+      <c r="R20" s="1">
+        <v>18</v>
+      </c>
+      <c r="S20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="2">
+      <c r="T20" s="2">
         <v>0.86566666670000003</v>
       </c>
-      <c r="M20" s="2">
-        <v>1</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="U20" s="2">
+        <v>1</v>
+      </c>
+      <c r="V20" s="3">
         <v>1.8045439999999999E-2</v>
       </c>
-      <c r="O20" s="2">
+      <c r="W20" s="2">
         <v>13</v>
       </c>
-      <c r="P20" s="2">
+      <c r="X20" s="2">
         <v>2.4163568999999999E-2</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="Z20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S20" s="6">
+      <c r="AA20" s="5">
         <v>0.86566666670000003</v>
       </c>
-      <c r="T20" s="2">
-        <v>1</v>
-      </c>
-      <c r="U20" s="2">
-        <v>1</v>
-      </c>
-      <c r="V20" s="7">
+      <c r="AB20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="6">
         <f t="shared" si="0"/>
         <v>0.13433333329999997</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -1802,41 +2298,65 @@
         <v>19</v>
       </c>
       <c r="K21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.9193333333</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>6.5071110000000003E-3</v>
+      </c>
+      <c r="O21" s="2">
+        <v>3</v>
+      </c>
+      <c r="P21" s="2">
+        <v>5.576208E-3</v>
+      </c>
+      <c r="R21" s="1">
+        <v>19</v>
+      </c>
+      <c r="S21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="2">
+      <c r="T21" s="2">
         <v>0.85466666670000002</v>
       </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>0.73045510000000002</v>
       </c>
-      <c r="O21" s="2">
+      <c r="W21" s="2">
         <v>10</v>
       </c>
-      <c r="P21" s="2">
+      <c r="X21" s="2">
         <v>1.8587361E-2</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="Z21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S21" s="6">
+      <c r="AA21" s="5">
         <v>0.85466666670000002</v>
       </c>
-      <c r="T21" s="2">
-        <v>0</v>
-      </c>
-      <c r="U21" s="2">
-        <v>0</v>
-      </c>
-      <c r="V21" s="7">
+      <c r="AB21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="6">
         <f t="shared" si="0"/>
         <v>-0.85466666670000002</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -1865,13 +2385,13 @@
         <v>28</v>
       </c>
       <c r="L22" s="2">
-        <v>0.81566666669999999</v>
+        <v>0.85866666670000003</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>0.66531209999999996</v>
+        <v>0.73730839999999997</v>
       </c>
       <c r="O22" s="2">
         <v>16</v>
@@ -1879,24 +2399,48 @@
       <c r="P22" s="2">
         <v>2.9739776999999998E-2</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R22" s="1">
+        <v>20</v>
+      </c>
+      <c r="S22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S22" s="6">
+      <c r="T22" s="2">
         <v>0.81566666669999999</v>
       </c>
-      <c r="T22" s="6">
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0.66531209999999996</v>
+      </c>
+      <c r="W22" s="2">
+        <v>16</v>
+      </c>
+      <c r="X22" s="2">
+        <v>2.9739776999999998E-2</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>0.81566666669999999</v>
+      </c>
+      <c r="AB22" s="5">
         <v>0.84733333330000005</v>
       </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-      <c r="V22" s="7">
+      <c r="AC22" s="2">
+        <v>0.85866666670000003</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="6">
         <f t="shared" si="0"/>
         <v>3.166666660000006E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -1922,41 +2466,65 @@
         <v>21</v>
       </c>
       <c r="K23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.84666666670000001</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="3">
+        <v>2.3511110000000002E-2</v>
+      </c>
+      <c r="O23" s="2">
+        <v>14</v>
+      </c>
+      <c r="P23" s="2">
+        <v>2.6022304999999999E-2</v>
+      </c>
+      <c r="R23" s="1">
+        <v>21</v>
+      </c>
+      <c r="S23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="2">
+      <c r="T23" s="2">
         <v>0.77566666669999995</v>
       </c>
-      <c r="M23" s="2">
-        <v>1</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="U23" s="2">
+        <v>1</v>
+      </c>
+      <c r="V23" s="3">
         <v>5.0325439999999999E-2</v>
       </c>
-      <c r="O23" s="2">
+      <c r="W23" s="2">
         <v>9</v>
       </c>
-      <c r="P23" s="2">
+      <c r="X23" s="2">
         <v>1.6728625E-2</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="Z23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S23" s="6">
+      <c r="AA23" s="5">
         <v>0.77566666669999995</v>
       </c>
-      <c r="T23" s="6">
+      <c r="AB23" s="5">
         <v>0.78666666669999996</v>
       </c>
-      <c r="U23" s="2">
-        <v>1</v>
-      </c>
-      <c r="V23" s="7">
+      <c r="AC23" s="2">
+        <v>0.80666666669999998</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="6">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -1982,41 +2550,65 @@
         <v>22</v>
       </c>
       <c r="K24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.80666666669999998</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>3.7377779999999999E-2</v>
+      </c>
+      <c r="O24" s="2">
+        <v>9</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1.6728625E-2</v>
+      </c>
+      <c r="R24" s="1">
+        <v>22</v>
+      </c>
+      <c r="S24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="2">
+      <c r="T24" s="2">
         <v>0.74766666670000004</v>
       </c>
-      <c r="M24" s="2">
-        <v>1</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="U24" s="2">
+        <v>1</v>
+      </c>
+      <c r="V24" s="3">
         <v>6.3672110000000004E-2</v>
       </c>
-      <c r="O24" s="2">
+      <c r="W24" s="2">
         <v>4</v>
       </c>
-      <c r="P24" s="2">
+      <c r="X24" s="2">
         <v>7.4349439999999998E-3</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="Z24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S24" s="6">
+      <c r="AA24" s="5">
         <v>0.74766666670000004</v>
       </c>
-      <c r="T24" s="2">
-        <v>0</v>
-      </c>
-      <c r="U24" s="2">
-        <v>1</v>
-      </c>
-      <c r="V24" s="7">
+      <c r="AB24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="6">
         <f t="shared" si="0"/>
         <v>-0.74766666670000004</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -2045,13 +2637,13 @@
         <v>30</v>
       </c>
       <c r="L25" s="2">
-        <v>0.745</v>
+        <v>0.80966666669999998</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
       </c>
       <c r="N25" s="3">
-        <v>0.55502499999999999</v>
+        <v>0.65556009999999998</v>
       </c>
       <c r="O25" s="2">
         <v>20</v>
@@ -2059,24 +2651,48 @@
       <c r="P25" s="2">
         <v>3.7174721000000001E-2</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="R25" s="1">
+        <v>23</v>
+      </c>
+      <c r="S25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S25" s="6">
+      <c r="T25" s="2">
         <v>0.745</v>
       </c>
-      <c r="T25" s="6">
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0.55502499999999999</v>
+      </c>
+      <c r="W25" s="2">
+        <v>20</v>
+      </c>
+      <c r="X25" s="2">
+        <v>3.7174721000000001E-2</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>0.745</v>
+      </c>
+      <c r="AB25" s="5">
         <v>0.80466666669999998</v>
       </c>
-      <c r="U25" s="2">
-        <v>0</v>
-      </c>
-      <c r="V25" s="7">
+      <c r="AC25" s="2">
+        <v>0.80966666669999998</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="6">
         <f t="shared" si="0"/>
         <v>5.9666666699999982E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -2102,41 +2718,65 @@
         <v>24</v>
       </c>
       <c r="K26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.64933333329999998</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.4216338</v>
+      </c>
+      <c r="O26" s="2">
+        <v>15</v>
+      </c>
+      <c r="P26" s="2">
+        <v>2.7881040999999999E-2</v>
+      </c>
+      <c r="R26" s="1">
+        <v>24</v>
+      </c>
+      <c r="S26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L26" s="2">
+      <c r="T26" s="2">
         <v>0.65633333329999999</v>
       </c>
-      <c r="M26" s="2">
-        <v>1</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="U26" s="2">
+        <v>1</v>
+      </c>
+      <c r="V26" s="3">
         <v>0.1181068</v>
       </c>
-      <c r="O26" s="2">
+      <c r="W26" s="2">
         <v>6</v>
       </c>
-      <c r="P26" s="2">
+      <c r="X26" s="2">
         <v>1.1152416E-2</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="Z26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S26" s="6">
+      <c r="AA26" s="5">
         <v>0.65633333329999999</v>
       </c>
-      <c r="T26" s="2">
-        <v>0</v>
-      </c>
-      <c r="U26" s="2">
-        <v>1</v>
-      </c>
-      <c r="V26" s="7">
+      <c r="AB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="6">
         <f t="shared" si="0"/>
         <v>-0.65633333329999999</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -2165,13 +2805,13 @@
         <v>34</v>
       </c>
       <c r="L27" s="2">
-        <v>0.42266666670000003</v>
+        <v>0.51733333329999998</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>0.1786471</v>
+        <v>0.26763379999999998</v>
       </c>
       <c r="O27" s="2">
         <v>29</v>
@@ -2179,24 +2819,48 @@
       <c r="P27" s="2">
         <v>5.3903345999999998E-2</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="R27" s="1">
+        <v>25</v>
+      </c>
+      <c r="S27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S27" s="6">
+      <c r="T27" s="2">
         <v>0.42266666670000003</v>
       </c>
-      <c r="T27" s="6">
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0.1786471</v>
+      </c>
+      <c r="W27" s="2">
+        <v>29</v>
+      </c>
+      <c r="X27" s="2">
+        <v>5.3903345999999998E-2</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>0.42266666670000003</v>
+      </c>
+      <c r="AB27" s="5">
         <v>0.52133333329999998</v>
       </c>
-      <c r="U27" s="2">
-        <v>0</v>
-      </c>
-      <c r="V27" s="7">
+      <c r="AC27" s="2">
+        <v>0.51733333329999998</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="6">
         <f t="shared" si="0"/>
         <v>9.8666666599999953E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -2222,41 +2886,65 @@
         <v>26</v>
       </c>
       <c r="K28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.51766666670000006</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.26797880000000002</v>
+      </c>
+      <c r="O28" s="2">
+        <v>5</v>
+      </c>
+      <c r="P28" s="2">
+        <v>9.2936800000000003E-3</v>
+      </c>
+      <c r="R28" s="1">
+        <v>26</v>
+      </c>
+      <c r="S28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="2">
+      <c r="T28" s="2">
         <v>0.35299999999999998</v>
       </c>
-      <c r="M28" s="2">
-        <v>0</v>
-      </c>
-      <c r="N28" s="3">
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
         <v>0.124609</v>
       </c>
-      <c r="O28" s="2">
+      <c r="W28" s="2">
         <v>15</v>
       </c>
-      <c r="P28" s="2">
+      <c r="X28" s="2">
         <v>2.7881040999999999E-2</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="Z28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S28" s="6">
+      <c r="AA28" s="5">
         <v>0.35299999999999998</v>
       </c>
-      <c r="T28" s="6">
+      <c r="AB28" s="5">
         <v>0.69633333330000002</v>
       </c>
-      <c r="U28" s="2">
-        <v>0</v>
-      </c>
-      <c r="V28" s="7">
+      <c r="AC28" s="2">
+        <v>0.64933333329999998</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="6">
         <f t="shared" si="0"/>
         <v>0.34333333330000004</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -2282,41 +2970,65 @@
         <v>27</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.12180100000000001</v>
+      </c>
+      <c r="O29" s="2">
+        <v>4</v>
+      </c>
+      <c r="P29" s="2">
+        <v>7.4349439999999998E-3</v>
+      </c>
+      <c r="R29" s="1">
+        <v>27</v>
+      </c>
+      <c r="S29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="2">
+      <c r="T29" s="2">
         <v>0.22766666669999999</v>
       </c>
-      <c r="M29" s="2">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>5.1832110000000001E-2</v>
       </c>
-      <c r="O29" s="2">
+      <c r="W29" s="2">
         <v>18</v>
       </c>
-      <c r="P29" s="2">
+      <c r="X29" s="2">
         <v>3.3457249000000001E-2</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="Z29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S29" s="6">
+      <c r="AA29" s="5">
         <v>0.22766666669999999</v>
       </c>
-      <c r="T29" s="6">
+      <c r="AB29" s="5">
         <v>0.26700000000000002</v>
       </c>
-      <c r="U29" s="2">
-        <v>0</v>
-      </c>
-      <c r="V29" s="7">
+      <c r="AC29" s="2">
+        <v>0.25566666669999999</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="6">
         <f t="shared" si="0"/>
         <v>3.9333333300000023E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -2342,41 +3054,65 @@
         <v>28</v>
       </c>
       <c r="K30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.25566666669999999</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>6.5365439999999997E-2</v>
+      </c>
+      <c r="O30" s="2">
+        <v>18</v>
+      </c>
+      <c r="P30" s="2">
+        <v>3.3457249000000001E-2</v>
+      </c>
+      <c r="R30" s="1">
+        <v>28</v>
+      </c>
+      <c r="S30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="2">
+      <c r="T30" s="2">
         <v>0.15433333329999999</v>
       </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="3">
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
         <v>2.3818780000000001E-2</v>
       </c>
-      <c r="O30" s="2">
+      <c r="W30" s="2">
         <v>6</v>
       </c>
-      <c r="P30" s="2">
+      <c r="X30" s="2">
         <v>1.1152416E-2</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="Z30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S30" s="6">
+      <c r="AA30" s="5">
         <v>0.15433333329999999</v>
       </c>
-      <c r="T30" s="2">
-        <v>0</v>
-      </c>
-      <c r="U30" s="2">
-        <v>0</v>
-      </c>
-      <c r="V30" s="7">
+      <c r="AB30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="6">
         <f t="shared" si="0"/>
         <v>-0.15433333329999999</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -2402,41 +3138,65 @@
         <v>29</v>
       </c>
       <c r="K31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1.44E-2</v>
+      </c>
+      <c r="O31" s="2">
+        <v>6</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1.1152416E-2</v>
+      </c>
+      <c r="R31" s="1">
+        <v>29</v>
+      </c>
+      <c r="S31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="2">
+      <c r="T31" s="2">
         <v>8.2333333300000006E-2</v>
       </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
-      <c r="N31" s="3">
+      <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
         <v>6.7787780000000001E-3</v>
       </c>
-      <c r="O31" s="2">
+      <c r="W31" s="2">
         <v>11</v>
       </c>
-      <c r="P31" s="2">
+      <c r="X31" s="2">
         <v>2.0446097E-2</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="Z31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S31" s="6">
+      <c r="AA31" s="5">
         <v>8.2333333300000006E-2</v>
       </c>
-      <c r="T31" s="2">
-        <v>0</v>
-      </c>
-      <c r="U31" s="2">
-        <v>0</v>
-      </c>
-      <c r="V31" s="7">
+      <c r="AB31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="6">
         <f t="shared" si="0"/>
         <v>-8.2333333300000006E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -2465,13 +3225,13 @@
         <v>41</v>
       </c>
       <c r="L32" s="2">
-        <v>7.6666666699999997E-2</v>
+        <v>8.0333333300000004E-2</v>
       </c>
       <c r="M32" s="2">
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>5.8777780000000002E-3</v>
+        <v>6.453444E-3</v>
       </c>
       <c r="O32" s="2">
         <v>16</v>
@@ -2479,24 +3239,48 @@
       <c r="P32" s="2">
         <v>2.9739776999999998E-2</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="R32" s="1">
+        <v>30</v>
+      </c>
+      <c r="S32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S32" s="6">
+      <c r="T32" s="2">
         <v>7.6666666699999997E-2</v>
       </c>
-      <c r="T32" s="6">
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>5.8777780000000002E-3</v>
+      </c>
+      <c r="W32" s="2">
+        <v>16</v>
+      </c>
+      <c r="X32" s="2">
+        <v>2.9739776999999998E-2</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>7.6666666699999997E-2</v>
+      </c>
+      <c r="AB32" s="5">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="U32" s="2">
-        <v>0</v>
-      </c>
-      <c r="V32" s="7">
+      <c r="AC32" s="2">
+        <v>8.0333333300000004E-2</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="6">
         <f t="shared" si="0"/>
         <v>3.3333330000000216E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -2525,13 +3309,13 @@
         <v>42</v>
       </c>
       <c r="L33" s="2">
-        <v>1.2999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="M33" s="2">
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>1.6899999999999999E-4</v>
+        <v>3.2400000000000001E-4</v>
       </c>
       <c r="O33" s="2">
         <v>9</v>
@@ -2539,24 +3323,48 @@
       <c r="P33" s="2">
         <v>1.6728625E-2</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="R33" s="1">
+        <v>31</v>
+      </c>
+      <c r="S33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="S33" s="6">
+      <c r="T33" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="T33" s="6">
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>1.6899999999999999E-4</v>
+      </c>
+      <c r="W33" s="2">
+        <v>9</v>
+      </c>
+      <c r="X33" s="2">
+        <v>1.6728625E-2</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA33" s="5">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="U33" s="2">
-        <v>0</v>
-      </c>
-      <c r="V33">
+      <c r="AB33" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AC33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -2582,41 +3390,65 @@
         <v>32</v>
       </c>
       <c r="K34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1.6666667E-3</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>2.7777780000000001E-6</v>
+      </c>
+      <c r="O34" s="2">
+        <v>6</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1.1152416E-2</v>
+      </c>
+      <c r="R34" s="1">
+        <v>32</v>
+      </c>
+      <c r="S34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="2">
+      <c r="T34" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M34" s="2">
-        <v>0</v>
-      </c>
-      <c r="N34" s="3">
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="O34" s="2">
+      <c r="W34" s="2">
         <v>38</v>
       </c>
-      <c r="P34" s="2">
+      <c r="X34" s="2">
         <v>7.0631970000000002E-2</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="Z34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S34" s="6">
+      <c r="AA34" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="T34" s="6">
+      <c r="AB34" s="5">
         <v>1E-3</v>
       </c>
-      <c r="U34" s="2">
-        <v>0</v>
-      </c>
-      <c r="V34" s="7">
+      <c r="AC34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="6">
         <f t="shared" si="0"/>
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>33</v>
       </c>
@@ -2642,41 +3474,65 @@
         <v>33</v>
       </c>
       <c r="K35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1.3333333E-3</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1.777778E-6</v>
+      </c>
+      <c r="O35" s="2">
+        <v>38</v>
+      </c>
+      <c r="P35" s="2">
+        <v>7.0631970000000002E-2</v>
+      </c>
+      <c r="R35" s="1">
+        <v>33</v>
+      </c>
+      <c r="S35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L35" s="2">
+      <c r="T35" s="2">
         <v>2E-3</v>
       </c>
-      <c r="M35" s="2">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="O35" s="2">
+      <c r="W35" s="2">
         <v>10</v>
       </c>
-      <c r="P35" s="2">
+      <c r="X35" s="2">
         <v>1.8587361E-2</v>
       </c>
-      <c r="R35" s="2" t="s">
+      <c r="Z35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S35" s="6">
+      <c r="AA35" s="5">
         <v>2E-3</v>
       </c>
-      <c r="T35" s="6">
+      <c r="AB35" s="5">
         <v>3.333333E-4</v>
       </c>
-      <c r="U35" s="2">
-        <v>0</v>
-      </c>
-      <c r="V35" s="7">
+      <c r="AC35" s="2">
+        <v>2.3333333E-3</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="6">
         <f t="shared" si="0"/>
         <v>-1.6666667E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -2702,41 +3558,65 @@
         <v>34</v>
       </c>
       <c r="K36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L36" s="2">
+        <v>2.3333333E-3</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
+        <v>5.4444440000000003E-6</v>
+      </c>
+      <c r="O36" s="2">
+        <v>10</v>
+      </c>
+      <c r="P36" s="2">
+        <v>1.8587361E-2</v>
+      </c>
+      <c r="R36" s="1">
+        <v>34</v>
+      </c>
+      <c r="S36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L36" s="2">
+      <c r="T36" s="2">
         <v>1.6666667E-3</v>
       </c>
-      <c r="M36" s="2">
-        <v>0</v>
-      </c>
-      <c r="N36" s="3">
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="3">
         <v>2.7777780000000001E-6</v>
       </c>
-      <c r="O36" s="2">
+      <c r="W36" s="2">
         <v>6</v>
       </c>
-      <c r="P36" s="2">
+      <c r="X36" s="2">
         <v>1.1152416E-2</v>
       </c>
-      <c r="R36" s="2" t="s">
+      <c r="Z36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S36" s="6">
+      <c r="AA36" s="5">
         <v>1.6666667E-3</v>
       </c>
-      <c r="T36" s="6">
+      <c r="AB36" s="5">
         <v>1.6666667E-3</v>
       </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
-      <c r="V36">
+      <c r="AC36" s="2">
+        <v>1.6666667E-3</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>35</v>
       </c>
@@ -2762,41 +3642,65 @@
         <v>35</v>
       </c>
       <c r="K37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L37" s="2">
+        <v>3.333333E-4</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
+        <v>1.111111E-7</v>
+      </c>
+      <c r="O37" s="2">
+        <v>9</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1.6728625E-2</v>
+      </c>
+      <c r="R37" s="1">
+        <v>35</v>
+      </c>
+      <c r="S37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L37" s="2">
+      <c r="T37" s="2">
         <v>6.6666670000000003E-4</v>
       </c>
-      <c r="M37" s="2">
-        <v>0</v>
-      </c>
-      <c r="N37" s="3">
+      <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="3">
         <v>4.444444E-7</v>
       </c>
-      <c r="O37" s="2">
+      <c r="W37" s="2">
         <v>3</v>
       </c>
-      <c r="P37" s="2">
+      <c r="X37" s="2">
         <v>5.576208E-3</v>
       </c>
-      <c r="R37" s="2" t="s">
+      <c r="Z37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S37" s="6">
+      <c r="AA37" s="5">
         <v>6.6666670000000003E-4</v>
       </c>
-      <c r="T37" s="2">
-        <v>0</v>
-      </c>
-      <c r="U37" s="2">
-        <v>0</v>
-      </c>
-      <c r="V37" s="7">
+      <c r="AB37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="6">
         <f t="shared" si="0"/>
         <v>-6.6666670000000003E-4</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>36</v>
       </c>
@@ -2822,41 +3726,65 @@
         <v>36</v>
       </c>
       <c r="K38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>6</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1.1152416E-2</v>
+      </c>
+      <c r="R38" s="1">
+        <v>36</v>
+      </c>
+      <c r="S38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="2">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0</v>
-      </c>
-      <c r="O38" s="2">
+      <c r="T38" s="2">
+        <v>0</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0</v>
+      </c>
+      <c r="V38" s="3">
+        <v>0</v>
+      </c>
+      <c r="W38" s="2">
         <v>11</v>
       </c>
-      <c r="P38" s="2">
+      <c r="X38" s="2">
         <v>2.0446097E-2</v>
       </c>
-      <c r="R38" s="2" t="s">
+      <c r="Z38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S38" s="2">
-        <v>0</v>
-      </c>
-      <c r="T38" s="2">
-        <v>1</v>
-      </c>
-      <c r="U38" s="2">
-        <v>0</v>
-      </c>
-      <c r="V38">
+      <c r="AA38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>37</v>
       </c>
@@ -2882,41 +3810,65 @@
         <v>37</v>
       </c>
       <c r="K39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>3</v>
+      </c>
+      <c r="P39" s="2">
+        <v>5.576208E-3</v>
+      </c>
+      <c r="R39" s="1">
+        <v>37</v>
+      </c>
+      <c r="S39" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L39" s="2">
-        <v>0</v>
-      </c>
-      <c r="M39" s="2">
-        <v>0</v>
-      </c>
-      <c r="N39" s="3">
-        <v>0</v>
-      </c>
-      <c r="O39" s="2">
+      <c r="T39" s="2">
+        <v>0</v>
+      </c>
+      <c r="U39" s="2">
+        <v>0</v>
+      </c>
+      <c r="V39" s="3">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
         <v>8</v>
       </c>
-      <c r="P39" s="2">
+      <c r="X39" s="2">
         <v>1.4869888E-2</v>
       </c>
-      <c r="R39" s="2" t="s">
+      <c r="Z39" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="S39" s="2">
-        <v>0</v>
-      </c>
-      <c r="T39" s="2">
-        <v>0</v>
-      </c>
-      <c r="U39" s="2">
-        <v>0</v>
-      </c>
-      <c r="V39">
+      <c r="AA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>38</v>
       </c>
@@ -2942,41 +3894,65 @@
         <v>38</v>
       </c>
       <c r="K40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>8</v>
+      </c>
+      <c r="P40" s="2">
+        <v>1.4869888E-2</v>
+      </c>
+      <c r="R40" s="1">
+        <v>38</v>
+      </c>
+      <c r="S40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L40" s="2">
-        <v>0</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0</v>
-      </c>
-      <c r="O40" s="2">
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" s="2">
+        <v>0</v>
+      </c>
+      <c r="V40" s="3">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
         <v>3</v>
       </c>
-      <c r="P40" s="2">
+      <c r="X40" s="2">
         <v>5.576208E-3</v>
       </c>
-      <c r="R40" s="2" t="s">
+      <c r="Z40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S40" s="2">
-        <v>0</v>
-      </c>
-      <c r="T40" s="2">
-        <v>0</v>
-      </c>
-      <c r="U40" s="2">
-        <v>0</v>
-      </c>
-      <c r="V40">
+      <c r="AA40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>39</v>
       </c>
@@ -3019,24 +3995,48 @@
       <c r="P41" s="2">
         <v>2.0446097E-2</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="R41" s="1">
+        <v>39</v>
+      </c>
+      <c r="S41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S41" s="2">
-        <v>0</v>
-      </c>
       <c r="T41" s="2">
         <v>0</v>
       </c>
       <c r="U41" s="2">
         <v>0</v>
       </c>
-      <c r="V41">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="2">
+        <v>11</v>
+      </c>
+      <c r="X41" s="2">
+        <v>2.0446097E-2</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>40</v>
       </c>
@@ -3079,24 +4079,48 @@
       <c r="P42" s="2">
         <v>1.1152416E-2</v>
       </c>
-      <c r="R42" s="2" t="s">
+      <c r="R42" s="1">
+        <v>40</v>
+      </c>
+      <c r="S42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="S42" s="2">
-        <v>0</v>
-      </c>
       <c r="T42" s="2">
         <v>0</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
       </c>
-      <c r="V42">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="2">
+        <v>6</v>
+      </c>
+      <c r="X42" s="2">
+        <v>1.1152416E-2</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>41</v>
       </c>
@@ -3139,24 +4163,48 @@
       <c r="P43" s="2">
         <v>5.576208E-3</v>
       </c>
-      <c r="R43" s="2" t="s">
+      <c r="R43" s="1">
+        <v>41</v>
+      </c>
+      <c r="S43" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S43" s="2">
-        <v>0</v>
-      </c>
       <c r="T43" s="2">
         <v>0</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
       </c>
-      <c r="V43">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="2">
+        <v>3</v>
+      </c>
+      <c r="X43" s="2">
+        <v>5.576208E-3</v>
+      </c>
+      <c r="Z43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>42</v>
       </c>
@@ -3182,41 +4230,65 @@
         <v>42</v>
       </c>
       <c r="K44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>11</v>
+      </c>
+      <c r="P44" s="2">
+        <v>2.0446097E-2</v>
+      </c>
+      <c r="R44" s="1">
+        <v>42</v>
+      </c>
+      <c r="S44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="2">
+      <c r="T44" s="2">
+        <v>0</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
         <v>3</v>
       </c>
-      <c r="P44" s="2">
+      <c r="X44" s="2">
         <v>5.576208E-3</v>
       </c>
-      <c r="R44" s="2" t="s">
+      <c r="Z44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S44" s="2">
-        <v>0</v>
-      </c>
-      <c r="T44" s="2">
-        <v>1</v>
-      </c>
-      <c r="U44" s="2">
-        <v>0</v>
-      </c>
-      <c r="V44">
+      <c r="AA44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>43</v>
       </c>
@@ -3242,41 +4314,65 @@
         <v>43</v>
       </c>
       <c r="K45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>3</v>
+      </c>
+      <c r="P45" s="2">
+        <v>5.576208E-3</v>
+      </c>
+      <c r="R45" s="1">
+        <v>43</v>
+      </c>
+      <c r="S45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L45" s="2">
-        <v>0</v>
-      </c>
-      <c r="M45" s="2">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="2">
+      <c r="T45" s="2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="2">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="2">
         <v>5</v>
       </c>
-      <c r="P45" s="2">
+      <c r="X45" s="2">
         <v>9.2936800000000003E-3</v>
       </c>
-      <c r="R45" s="2" t="s">
+      <c r="Z45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S45" s="2">
-        <v>0</v>
-      </c>
-      <c r="T45" s="6">
+      <c r="AA45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="5">
         <v>0.41199999999999998</v>
       </c>
-      <c r="U45" s="2">
-        <v>0</v>
-      </c>
-      <c r="V45" s="7">
+      <c r="AC45" s="2">
+        <v>0.51766666670000006</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="6">
         <f t="shared" si="0"/>
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>44</v>
       </c>
@@ -3302,41 +4398,65 @@
         <v>44</v>
       </c>
       <c r="K46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+      <c r="O46" s="2">
+        <v>4</v>
+      </c>
+      <c r="P46" s="2">
+        <v>7.4349439999999998E-3</v>
+      </c>
+      <c r="R46" s="1">
+        <v>44</v>
+      </c>
+      <c r="S46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L46" s="2">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="2">
+      <c r="T46" s="2">
+        <v>0</v>
+      </c>
+      <c r="U46" s="2">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="2">
         <v>9</v>
       </c>
-      <c r="P46" s="2">
+      <c r="X46" s="2">
         <v>1.6728625E-2</v>
       </c>
-      <c r="R46" s="2" t="s">
+      <c r="Z46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S46" s="2">
-        <v>0</v>
-      </c>
-      <c r="T46" s="6">
+      <c r="AA46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="5">
         <v>3.333333E-4</v>
       </c>
-      <c r="U46" s="2">
-        <v>0</v>
-      </c>
-      <c r="V46" s="7">
+      <c r="AC46" s="2">
+        <v>3.333333E-4</v>
+      </c>
+      <c r="AD46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="6">
         <f t="shared" si="0"/>
         <v>3.333333E-4</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>45</v>
       </c>
@@ -3362,16 +4482,16 @@
         <v>45</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L47" s="2">
         <v>0</v>
       </c>
       <c r="M47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="2">
         <v>6</v>
@@ -3379,24 +4499,48 @@
       <c r="P47" s="2">
         <v>1.1152416E-2</v>
       </c>
-      <c r="R47" s="2" t="s">
+      <c r="R47" s="1">
+        <v>45</v>
+      </c>
+      <c r="S47" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S47" s="2">
-        <v>0</v>
-      </c>
-      <c r="T47" s="6">
+      <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="2">
+        <v>6</v>
+      </c>
+      <c r="X47" s="2">
+        <v>1.1152416E-2</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="5">
         <v>9.6666666700000001E-2</v>
       </c>
-      <c r="U47" s="2">
-        <v>0</v>
-      </c>
-      <c r="V47" s="7">
+      <c r="AC47" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="6">
         <f t="shared" si="0"/>
         <v>9.6666666700000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>46</v>
       </c>
@@ -3422,41 +4566,65 @@
         <v>46</v>
       </c>
       <c r="K48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
+        <v>8</v>
+      </c>
+      <c r="P48" s="2">
+        <v>1.4869888E-2</v>
+      </c>
+      <c r="R48" s="1">
+        <v>46</v>
+      </c>
+      <c r="S48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L48" s="2">
-        <v>0</v>
-      </c>
-      <c r="M48" s="2">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="2">
+      <c r="T48" s="2">
+        <v>0</v>
+      </c>
+      <c r="U48" s="2">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="2">
         <v>6</v>
       </c>
-      <c r="P48" s="2">
+      <c r="X48" s="2">
         <v>1.1152416E-2</v>
       </c>
-      <c r="R48" s="2" t="s">
+      <c r="Z48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S48" s="2">
-        <v>0</v>
-      </c>
-      <c r="T48" s="2">
-        <v>0</v>
-      </c>
-      <c r="U48" s="2">
-        <v>0</v>
-      </c>
-      <c r="V48">
+      <c r="AA48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -3482,41 +4650,65 @@
         <v>47</v>
       </c>
       <c r="K49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>6</v>
+      </c>
+      <c r="P49" s="2">
+        <v>1.1152416E-2</v>
+      </c>
+      <c r="R49" s="1">
+        <v>47</v>
+      </c>
+      <c r="S49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L49" s="2">
-        <v>0</v>
-      </c>
-      <c r="M49" s="2">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="2">
+      <c r="T49" s="2">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="2">
         <v>8</v>
       </c>
-      <c r="P49" s="2">
+      <c r="X49" s="2">
         <v>1.4869888E-2</v>
       </c>
-      <c r="R49" s="2" t="s">
+      <c r="Z49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S49" s="2">
-        <v>0</v>
-      </c>
-      <c r="T49" s="2">
-        <v>0</v>
-      </c>
-      <c r="U49" s="2">
-        <v>0</v>
-      </c>
-      <c r="V49">
+      <c r="AA49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>48</v>
       </c>
@@ -3542,41 +4734,65 @@
         <v>48</v>
       </c>
       <c r="K50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>10</v>
+      </c>
+      <c r="P50" s="2">
+        <v>1.8587361E-2</v>
+      </c>
+      <c r="R50" s="1">
+        <v>48</v>
+      </c>
+      <c r="S50" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L50" s="2">
-        <v>0</v>
-      </c>
-      <c r="M50" s="2">
-        <v>0</v>
-      </c>
-      <c r="N50" s="3">
-        <v>0</v>
-      </c>
-      <c r="O50" s="2">
+      <c r="T50" s="2">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="2">
         <v>5</v>
       </c>
-      <c r="P50" s="2">
+      <c r="X50" s="2">
         <v>9.2936800000000003E-3</v>
       </c>
-      <c r="R50" s="2" t="s">
+      <c r="Z50" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S50" s="2">
-        <v>0</v>
-      </c>
-      <c r="T50" s="6">
+      <c r="AA50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="5">
         <v>0.92400000000000004</v>
       </c>
-      <c r="U50" s="2">
-        <v>0</v>
-      </c>
-      <c r="V50" s="7">
+      <c r="AC50" s="2">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="6">
         <f t="shared" si="0"/>
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>49</v>
       </c>
@@ -3602,41 +4818,65 @@
         <v>49</v>
       </c>
       <c r="K51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>1</v>
+      </c>
+      <c r="N51" s="3">
+        <v>1</v>
+      </c>
+      <c r="O51" s="2">
+        <v>20</v>
+      </c>
+      <c r="P51" s="2">
+        <v>3.7174721000000001E-2</v>
+      </c>
+      <c r="R51" s="1">
+        <v>49</v>
+      </c>
+      <c r="S51" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2">
-        <v>0</v>
-      </c>
-      <c r="N51" s="3">
-        <v>0</v>
-      </c>
-      <c r="O51" s="2">
+      <c r="T51" s="2">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="2">
         <v>4</v>
       </c>
-      <c r="P51" s="2">
+      <c r="X51" s="2">
         <v>7.4349439999999998E-3</v>
       </c>
-      <c r="R51" s="2" t="s">
+      <c r="Z51" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S51" s="2">
-        <v>0</v>
-      </c>
-      <c r="T51" s="6">
+      <c r="AA51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="5">
         <v>0.253</v>
       </c>
-      <c r="U51" s="2">
-        <v>0</v>
-      </c>
-      <c r="V51" s="7">
+      <c r="AC51" s="2">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="6">
         <f t="shared" si="0"/>
         <v>0.253</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -3679,24 +4919,48 @@
       <c r="P52" s="2">
         <v>1.3011152E-2</v>
       </c>
-      <c r="R52" s="2" t="s">
+      <c r="R52" s="1">
+        <v>50</v>
+      </c>
+      <c r="S52" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="S52" s="2">
-        <v>0</v>
-      </c>
       <c r="T52" s="2">
         <v>0</v>
       </c>
       <c r="U52" s="2">
         <v>0</v>
       </c>
-      <c r="V52">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="2">
+        <v>7</v>
+      </c>
+      <c r="X52" s="2">
+        <v>1.3011152E-2</v>
+      </c>
+      <c r="Z52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
         <v>51</v>
       </c>
@@ -3739,28 +5003,1180 @@
       <c r="P53" s="2">
         <v>5.576208E-3</v>
       </c>
-      <c r="R53" s="2" t="s">
+      <c r="R53" s="1">
+        <v>51</v>
+      </c>
+      <c r="S53" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S53" s="2">
-        <v>0</v>
-      </c>
       <c r="T53" s="2">
         <v>0</v>
       </c>
       <c r="U53" s="2">
         <v>0</v>
       </c>
-      <c r="V53">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="2">
+        <v>3</v>
+      </c>
+      <c r="X53" s="2">
+        <v>5.576208E-3</v>
+      </c>
+      <c r="Z53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
+    <row r="55" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="Z55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA55" cm="1">
+        <f t="array" ref="AA55">SUM(ABS(AA3:AA53-AD3:AD53))</f>
+        <v>4.8920000001000012</v>
+      </c>
+      <c r="AB55" cm="1">
+        <f t="array" ref="AB55">SUM(ABS(AB3:AB53-AD3:AD53))</f>
+        <v>10.500666666500003</v>
+      </c>
+      <c r="AC55" cm="1">
+        <f t="array" ref="AC55">SUM(ABS(AC3:AC53-AD3:AD53))</f>
+        <v>10.629999999900001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:H1"/>
+    <mergeCell ref="R1:X1"/>
     <mergeCell ref="J1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4282A1-C673-2F41-8536-2AD0CB60CF3D}">
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5.576208E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.333333E-4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.111111E-7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.6728625E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.44E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.1152416E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.0446097E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>55</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.102230483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.80666666669999998</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.7377779999999999E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.6728625E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.99933333329999996</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.444444E-7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.3011152E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5.576208E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5.576208E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.51733333329999998</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.26763379999999998</v>
+      </c>
+      <c r="F11" s="2">
+        <v>29</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5.3903345999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8.0333333300000004E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6.453444E-3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2.9739776999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2">
+        <v>7.4349439999999998E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.1152416E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.12180100000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2">
+        <v>7.4349439999999998E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3.7174721000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.0446097E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.1152416E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.4869888E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>8</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.4869888E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4.8999999999999998E-5</v>
+      </c>
+      <c r="F21" s="2">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2.0446097E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.8587361E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2">
+        <v>7.4349439999999998E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.85866666670000003</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.73730839999999997</v>
+      </c>
+      <c r="F24" s="2">
+        <v>16</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2.9739776999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.93566666669999998</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4.1387780000000001E-3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1.8587361E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2.3333333E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5.4444440000000003E-6</v>
+      </c>
+      <c r="F26" s="2">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1.8587361E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.6666667E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.7777780000000001E-6</v>
+      </c>
+      <c r="F27" s="2">
+        <v>6</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1.1152416E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3</v>
+      </c>
+      <c r="G28" s="2">
+        <v>5.576208E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.64933333329999998</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.4216338</v>
+      </c>
+      <c r="F29" s="2">
+        <v>15</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2.7881040999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2">
+        <v>5.576208E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.51766666670000006</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.26797880000000002</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>9.2936800000000003E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2">
+        <v>7.4349439999999998E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.84666666670000001</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2.3511110000000002E-2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>14</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2.6022304999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.999</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F34" s="2">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>9.2936800000000003E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>6</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1.1152416E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.96766666670000001</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1.045444E-3</v>
+      </c>
+      <c r="F36" s="2">
+        <v>29</v>
+      </c>
+      <c r="G36" s="2">
+        <v>5.3903345999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.25566666669999999</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>6.5365439999999997E-2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>18</v>
+      </c>
+      <c r="G37" s="2">
+        <v>3.3457249000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>7</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1.3011152E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="F39" s="2">
+        <v>7</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1.3011152E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.80966666669999998</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.65556009999999998</v>
+      </c>
+      <c r="F40" s="2">
+        <v>20</v>
+      </c>
+      <c r="G40" s="2">
+        <v>3.7174721000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>4</v>
+      </c>
+      <c r="G41" s="2">
+        <v>7.4349439999999998E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3.2400000000000001E-4</v>
+      </c>
+      <c r="F42" s="2">
+        <v>9</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1.6728625E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>3</v>
+      </c>
+      <c r="G43" s="2">
+        <v>5.576208E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>11</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2.0446097E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1.3333333E-3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1.777778E-6</v>
+      </c>
+      <c r="F45" s="2">
+        <v>38</v>
+      </c>
+      <c r="G45" s="2">
+        <v>7.0631970000000002E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>6</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1.1152416E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>13</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2.4163568999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.9193333333</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6.5071110000000003E-3</v>
+      </c>
+      <c r="F48" s="2">
+        <v>3</v>
+      </c>
+      <c r="G48" s="2">
+        <v>5.576208E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.99866666670000004</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1.777778E-6</v>
+      </c>
+      <c r="F49" s="2">
+        <v>12</v>
+      </c>
+      <c r="G49" s="2">
+        <v>2.2304833E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1.8587361E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.866761</v>
+      </c>
+      <c r="F51" s="2">
+        <v>5</v>
+      </c>
+      <c r="G51" s="2">
+        <v>9.2936800000000003E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>3</v>
+      </c>
+      <c r="G52" s="2">
+        <v>5.576208E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G52">
+    <sortCondition ref="B1:B52"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/various_correlations_output.xlsx
+++ b/various_correlations_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnrandolph/Desktop/Github/voting-power/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7951BD8-FB8B-FA4E-ADE5-F1D4D3EE1623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B979AA6-3C22-3741-AB72-9B29DC7A30D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17800" windowHeight="22400" xr2:uid="{1A8CDEDC-9550-8544-A06A-66A54DD639E8}"/>
   </bookViews>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C4DDF8-C308-E94C-8C3B-BAAF738F897C}">
   <dimension ref="A1:AE55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V8" workbookViewId="0">
-      <selection activeCell="AC56" sqref="AC56"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
